--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Qwen/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1074</v>
       </c>
       <c r="C2" t="n">
-        <v>13.03538175046555</v>
+        <v>1022</v>
       </c>
       <c r="D2" t="n">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="G2" t="n">
         <v>151</v>
       </c>
-      <c r="F2" t="n">
-        <v>17.88079470198675</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>136</v>
       </c>
-      <c r="H2" t="n">
-        <v>143</v>
-      </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11.9205298013245</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.609271523178808</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90.06622516556291</v>
+      </c>
+      <c r="P2" t="n">
+        <v>93.37748344370861</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.9072847682119205</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9513888888888888</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>93.45732473635853</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>76.11417557630702</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>1275</v>
       </c>
       <c r="C3" t="n">
-        <v>12.94117647058824</v>
+        <v>1201</v>
       </c>
       <c r="D3" t="n">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.27450980392157</v>
+      </c>
+      <c r="G3" t="n">
         <v>154</v>
       </c>
-      <c r="F3" t="n">
-        <v>21.42857142857143</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>129</v>
       </c>
-      <c r="H3" t="n">
-        <v>139</v>
-      </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.77922077922078</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>83.76623376623377</v>
+      </c>
+      <c r="P3" t="n">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.8701298701298701</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9305555555555556</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>85.11416509867468</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>65.26824427733783</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>2048</v>
       </c>
       <c r="C4" t="n">
-        <v>13.96484375</v>
+        <v>1964</v>
       </c>
       <c r="D4" t="n">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
+        <v>46</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.34765625</v>
+      </c>
+      <c r="G4" t="n">
         <v>324</v>
       </c>
-      <c r="F4" t="n">
-        <v>45.67901234567901</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>198</v>
       </c>
-      <c r="H4" t="n">
-        <v>265</v>
-      </c>
       <c r="I4" t="n">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="J4" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
+        <v>55</v>
+      </c>
+      <c r="L4" t="n">
+        <v>27.46913580246914</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20.98765432098765</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21</v>
+      </c>
+      <c r="O4" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="P4" t="n">
+        <v>67.5925925925926</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.6419753086419753</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.7819548872180451</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>70.92860612784293</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>37.33605118284065</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>357</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4453781512605</v>
+        <v>322</v>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="G5" t="n">
         <v>42</v>
       </c>
-      <c r="F5" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>35</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>36</v>
       </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>38.09523809523809</v>
+      </c>
+      <c r="M5" t="n">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="P5" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.9428571428571428</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>79.49596848434575</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>64.73317173700586</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1369</v>
       </c>
       <c r="C6" t="n">
-        <v>10.81081081081081</v>
+        <v>1248</v>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.51862673484295</v>
+      </c>
+      <c r="G6" t="n">
         <v>184</v>
       </c>
-      <c r="F6" t="n">
-        <v>8.695652173913043</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>170</v>
       </c>
-      <c r="H6" t="n">
-        <v>177</v>
-      </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.608695652173914</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.978260869565218</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>92.39130434782609</v>
+      </c>
+      <c r="P6" t="n">
+        <v>94.02173913043478</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.9402173913043478</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.969187675070028</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>96.10333723069117</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>87.3079129505591</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>755</v>
       </c>
       <c r="C7" t="n">
-        <v>6.357615894039735</v>
+        <v>712</v>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.827814569536424</v>
+      </c>
+      <c r="G7" t="n">
         <v>104</v>
       </c>
-      <c r="F7" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>96</v>
       </c>
-      <c r="H7" t="n">
-        <v>98</v>
-      </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.807692307692308</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.846153846153846</v>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="P7" t="n">
+        <v>93.26923076923077</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.9230769230769231</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.96</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>94.48095783810938</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>83.02788301233569</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1135</v>
       </c>
       <c r="C8" t="n">
-        <v>57.44493392070484</v>
+        <v>989</v>
       </c>
       <c r="D8" t="n">
-        <v>652</v>
+        <v>146</v>
       </c>
       <c r="E8" t="n">
+        <v>301</v>
+      </c>
+      <c r="F8" t="n">
+        <v>39.38325991189428</v>
+      </c>
+      <c r="G8" t="n">
         <v>127</v>
       </c>
-      <c r="F8" t="n">
-        <v>117.3228346456693</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>64</v>
       </c>
-      <c r="H8" t="n">
-        <v>77</v>
-      </c>
       <c r="I8" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J8" t="n">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="K8" t="n">
+        <v>118</v>
+      </c>
+      <c r="L8" t="n">
+        <v>138.5826771653543</v>
+      </c>
+      <c r="M8" t="n">
+        <v>129.9212598425197</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>50.39370078740157</v>
+      </c>
+      <c r="P8" t="n">
+        <v>59.05511811023622</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.9846153846153847</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.5039370078740157</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>29.77923525386232</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>26.28917928719157</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1071</v>
       </c>
       <c r="C9" t="n">
-        <v>16.71335200746965</v>
+        <v>930</v>
       </c>
       <c r="D9" t="n">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.19234360410831</v>
+      </c>
+      <c r="G9" t="n">
         <v>127</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>102</v>
+      </c>
+      <c r="I9" t="n">
+        <v>107</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L9" t="n">
         <v>20.47244094488189</v>
       </c>
-      <c r="G9" t="n">
-        <v>102</v>
-      </c>
-      <c r="H9" t="n">
-        <v>110</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17</v>
-      </c>
-      <c r="J9" t="n">
-        <v>14</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
+        <v>16.53543307086614</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>80.31496062992126</v>
+      </c>
+      <c r="P9" t="n">
+        <v>84.25196850393701</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.8031496062992126</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.8908296943231441</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>83.58770428304386</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>71.36668324359346</v>
       </c>
     </row>

--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Qwen/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1074</v>
+        <v>1040</v>
       </c>
       <c r="B2" t="n">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0503</v>
+        <v>0.0308</v>
       </c>
       <c r="F2" t="n">
         <v>151</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="B3" t="n">
-        <v>1204</v>
+        <v>1227</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.098</v>
+        <v>0.0485</v>
       </c>
       <c r="F3" t="n">
         <v>154</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2048</v>
+        <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>1970</v>
+        <v>1908</v>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0576</v>
+        <v>0.0559</v>
       </c>
       <c r="F4" t="n">
         <v>324</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B5" t="n">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="F5" t="n">
         <v>42</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1369</v>
+        <v>1256</v>
       </c>
       <c r="B6" t="n">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0979</v>
+        <v>0.0223</v>
       </c>
       <c r="F6" t="n">
         <v>184</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B7" t="n">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0556</v>
+        <v>0.0531</v>
       </c>
       <c r="F7" t="n">
         <v>104</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1135</v>
+        <v>1052</v>
       </c>
       <c r="B8" t="n">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="C8" t="n">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="D8" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3938</v>
+        <v>0.3508</v>
       </c>
       <c r="F8" t="n">
         <v>127</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1071</v>
+        <v>1023</v>
       </c>
       <c r="B9" t="n">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="C9" t="n">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0.127</v>
+        <v>0.1017</v>
       </c>
       <c r="F9" t="n">
         <v>127</v>
